--- a/resource/fetchflow_evaluation.xlsx
+++ b/resource/fetchflow_evaluation.xlsx
@@ -15,6 +15,7 @@
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -622,7 +623,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabelle2" displayName="Tabelle2" ref="A1:L101" totalsRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabelle2" displayName="Tabelle2" ref="A1:L100" totalsRowShown="0">
   <autoFilter ref="A1:L100"/>
   <sortState ref="A2:E101">
     <sortCondition ref="B1:B197"/>
